--- a/biology/Botanique/Guennadi_Iakovlev/Guennadi_Iakovlev.xlsx
+++ b/biology/Botanique/Guennadi_Iakovlev/Guennadi_Iakovlev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guennadi Pavlovitch Iakovlev (en russe : Геннадий Павлович Яковлев), né le 7 juin 1938 à Léningrad (république socialiste fédérative soviétique de Russie, URSS) et mort le 12 janvier 2024[1], est un botaniste soviétique puis russe, spécialiste des Fabaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guennadi Pavlovitch Iakovlev (en russe : Геннадий Павлович Яковлев), né le 7 juin 1938 à Léningrad (république socialiste fédérative soviétique de Russie, URSS) et mort le 12 janvier 2024, est un botaniste soviétique puis russe, spécialiste des Fabaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gennadi Iakovlev vient à l’Institut botanique en 1957, alors qu’il est encore étudiant. Il travaille longtemps à l’institut, participe à des expéditions au Vietnam et à Cuba[2] .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gennadi Iakovlev vient à l’Institut botanique en 1957, alors qu’il est encore étudiant. Il travaille longtemps à l’institut, participe à des expéditions au Vietnam et à Cuba .
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1964 : (ru) Nobaia sistema roda Sophora L i ego philogenie, Trudy Leningradskogo khimico-farmacevticheskogo instituta no 17, p. 50-77.
 1967 : (ru) Zametki po sistematike i geographii roda Sophora L. i blizkikh rodov, Trudy Leningradskogo khimico-farmacevticheskogo instituta no 21, p. 42-62
